--- a/lab2/Book1.xlsx
+++ b/lab2/Book1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnar\git\T-509-RAFT-Rafeindataekni-2015\lab2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>mA</t>
   </si>
@@ -42,12 +37,107 @@
   </si>
   <si>
     <t>VD</t>
+  </si>
+  <si>
+    <t>Id0</t>
+  </si>
+  <si>
+    <t>Id_0</t>
+  </si>
+  <si>
+    <t>$\omega$</t>
+  </si>
+  <si>
+    <t>$R_1$</t>
+  </si>
+  <si>
+    <t>$R_2$</t>
+  </si>
+  <si>
+    <t>$R_3$</t>
+  </si>
+  <si>
+    <t>$R_4$</t>
+  </si>
+  <si>
+    <t>$R_L$</t>
+  </si>
+  <si>
+    <t>$C_1$</t>
+  </si>
+  <si>
+    <t>$C_2$</t>
+  </si>
+  <si>
+    <t>$C_3$</t>
+  </si>
+  <si>
+    <t>$V_{DD}$</t>
+  </si>
+  <si>
+    <t>$100 \ k \Omega$</t>
+  </si>
+  <si>
+    <t>$470 \ \Omega$</t>
+  </si>
+  <si>
+    <t>$462 \ \Omega$</t>
+  </si>
+  <si>
+    <t>$94 \ k \Omega$</t>
+  </si>
+  <si>
+    <t>$1.05 \ k \Omega$</t>
+  </si>
+  <si>
+    <t>$1.00 \ k \Omega$</t>
+  </si>
+  <si>
+    <t>$15.373 \ V$</t>
+  </si>
+  <si>
+    <t>$15.000 \ V$</t>
+  </si>
+  <si>
+    <t>$98.5 \ k \Omega$</t>
+  </si>
+  <si>
+    <t>$1.015 \ \mu F$</t>
+  </si>
+  <si>
+    <t>$1.000 \ \mu F$</t>
+  </si>
+  <si>
+    <t>$98.4 \ \mu F$</t>
+  </si>
+  <si>
+    <t>$10.09 \ \mu F$</t>
+  </si>
+  <si>
+    <t>$10.00 \ \mu F$</t>
+  </si>
+  <si>
+    <t>$100.0 \ \mu F$</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Theoretical</t>
+  </si>
+  <si>
+    <t>Measured</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,8 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,7 +192,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="is-IS"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -157,26 +250,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -348,11 +421,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1814950688"/>
-        <c:axId val="-1814951232"/>
+        <c:axId val="62185984"/>
+        <c:axId val="571064896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1814950688"/>
+        <c:axId val="62185984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,26 +475,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -457,10 +510,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="is-IS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1814951232"/>
+        <c:crossAx val="571064896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -468,7 +521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1814951232"/>
+        <c:axId val="571064896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,26 +585,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -581,10 +614,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="is-IS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1814950688"/>
+        <c:crossAx val="62185984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -633,7 +666,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="is-IS"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -663,9 +696,225 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="is-IS"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="is-IS"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>00,000</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3095238095238072</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90259740259740218</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3116883116883109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5259740259740244</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.331168831168831</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.474025974025974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.872294372294373</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.344155844155843</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.798701298701296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571157888"/>
+        <c:axId val="571157312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571157888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="571157312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571157312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="00,000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="571157888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1244,6 +1493,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>324972</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1507,7 +1786,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1515,15 +1794,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I25"/>
+  <dimension ref="A2:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" customWidth="1"/>
+    <col min="27" max="27" width="17.5703125" customWidth="1"/>
+    <col min="28" max="28" width="18.140625" customWidth="1"/>
+    <col min="29" max="31" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1536,8 +1825,11 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1557,12 +1849,16 @@
         <f>15.373-G3</f>
         <v>0</v>
       </c>
-      <c r="I3">
-        <f>H3/462</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="3">
+        <f>1000*H3/462</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.28000000000000003</v>
       </c>
@@ -1579,12 +1875,42 @@
         <f t="shared" ref="H4:H20" si="0">15.373-G4</f>
         <v>0</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I20" si="1">H4/462</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I20" si="1">1000*H4/462</f>
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.56000000000000005</v>
       </c>
@@ -1601,12 +1927,42 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="W5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.75</v>
       </c>
@@ -1623,12 +1979,42 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="W6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1.03</v>
       </c>
@@ -1645,12 +2031,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1.31</v>
       </c>
@@ -1667,12 +2053,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1.5</v>
       </c>
@@ -1689,12 +2075,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1.69</v>
       </c>
@@ -1711,12 +2097,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1.8</v>
       </c>
@@ -1730,15 +2116,15 @@
         <v>15.372999999999999</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
+        <f>15.373-G11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1.85</v>
       </c>
@@ -1755,12 +2141,12 @@
         <f t="shared" si="0"/>
         <v>0.14299999999999891</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <f t="shared" si="1"/>
-        <v>3.0952380952380717E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.3095238095238072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1780,12 +2166,12 @@
         <f t="shared" si="0"/>
         <v>0.41699999999999982</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <f t="shared" si="1"/>
-        <v>9.0259740259740224E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.90259740259740218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2</v>
       </c>
@@ -1802,12 +2188,15 @@
         <f t="shared" si="0"/>
         <v>1.0679999999999996</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>2.3116883116883107E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.3116883116883109</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1824,15 +2213,15 @@
         <v>12.82</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f>15.373-G15</f>
         <v>2.552999999999999</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <f t="shared" si="1"/>
-        <v>5.5259740259740236E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.5259740259740244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2.2000000000000002</v>
       </c>
@@ -1846,15 +2235,15 @@
         <v>10.6</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f>15.373-G16</f>
         <v>4.7729999999999997</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <f t="shared" si="1"/>
-        <v>1.033116883116883E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10.331168831168831</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2.2999999999999998</v>
       </c>
@@ -1871,12 +2260,12 @@
         <f t="shared" si="0"/>
         <v>8.0730000000000004</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <f t="shared" si="1"/>
-        <v>1.7474025974025975E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17.474025974025974</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2.4</v>
       </c>
@@ -1893,12 +2282,18 @@
         <f t="shared" si="0"/>
         <v>11.952999999999999</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <f t="shared" si="1"/>
-        <v>2.5872294372294369E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25.872294372294373</v>
+      </c>
+      <c r="X18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>2.4</v>
       </c>
@@ -1909,12 +2304,18 @@
         <f t="shared" si="0"/>
         <v>14.943</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <f t="shared" si="1"/>
-        <v>3.2344155844155842E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32.344155844155843</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>2.5</v>
       </c>
@@ -1925,21 +2326,146 @@
         <f t="shared" si="0"/>
         <v>15.152999999999999</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <f t="shared" si="1"/>
-        <v>3.2798701298701292E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32.798701298701296</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X21" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X23" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2.5</v>
       </c>
       <c r="C25">
         <v>32.9</v>
       </c>
+      <c r="X25" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X26" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X27" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X28" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0.3095238095238072</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X29" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0.90259740259740218</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X30" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>2.3116883116883109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X31" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>5.5259740259740244</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X32" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>10.331168831168831</v>
+      </c>
+    </row>
+    <row r="33" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X33" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>17.474025974025974</v>
+      </c>
+    </row>
+    <row r="34" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X34" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>25.872294372294373</v>
+      </c>
+    </row>
+    <row r="35" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X35" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>32.344155844155843</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>